--- a/data/pipe_labs.xlsx
+++ b/data/pipe_labs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SA\Project\B4W-19-01-CO-H2O\Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{704D80A9-EB8B-4139-B2F3-C481AAE67F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0036F1-7E12-4477-9173-61ABB51E35F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="4635" windowWidth="14205" windowHeight="15435"/>
+    <workbookView xWindow="25050" yWindow="3750" windowWidth="20385" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pipe_labs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>lab2</t>
   </si>
@@ -83,12 +83,42 @@
   </si>
   <si>
     <t>var</t>
+  </si>
+  <si>
+    <t>Trail Sports (running 3+ miles on paved/unpaved trail, day-hiking, backpacking, climbing ice or rock, mountaineering, horseback riding)</t>
+  </si>
+  <si>
+    <t>Snow sports (skiing cross-country/downhill/telemark, snowboarding, snowshoeing)</t>
+  </si>
+  <si>
+    <t>Bicycling or skateboarding (on paved road or off-road)</t>
+  </si>
+  <si>
+    <t>Camping (RV at campsite, tent campsite, or at a rustic lodge)</t>
+  </si>
+  <si>
+    <t>Fishing (recreational fly and non-fly)</t>
+  </si>
+  <si>
+    <t>Hunting &amp; shooting (shotgun, rifle, or bow)</t>
+  </si>
+  <si>
+    <t>Picnicking or relaxing</t>
+  </si>
+  <si>
+    <t>Water sports (swimming, canoeing, kayaking, rafting, paddle-boarding, sailing, recreating with motorized boat)</t>
+  </si>
+  <si>
+    <t>Wildlife-watching (viewing, feeding, or photographing animals, bird watching)</t>
+  </si>
+  <si>
+    <t>Question</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -521,6 +551,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -566,9 +605,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,30 +963,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="120" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>10</v>
@@ -954,69 +998,96 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
